--- a/finetuning/it_datasets/it_dataset/it_kasserine_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_kasserine_dataset.xlsx
@@ -646,9 +646,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Salon De The Montana located at 5R9G+48Q Salon De The Montana, Kasserine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.167491, 8.8334526.</t>
+          <t>Salon De The Montana is a highly-rated cafe in Kasserine, Tunisia, with a 4.3 rating based on 6 reviews. This cafe opens from 06:00-22:00 and is located at the coordinates (35.167491, 8.8334526). While the description and website are currently unavailable, Salon De The Montana offers a range of cafe-style offerings in the heart of Kasserine.</t>
         </is>
       </c>
     </row>
@@ -755,9 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great place to eat, check out Brown Club located at Avenue Mohammed El Hammi. 
-This top-rated spot is perfect for Cafe lovers and offers a range of Cafe and Restaurant options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.171924896443, 8.821844789959. For more details, visit their website at https://brownclub.ovh/ or call them at 92 299 007.</t>
+          <t>The Brown Club is a highly-rated cafe and restaurant located in Kasserine, Tunisia. It offers a cozy atmosphere and a wide selection of food and beverages. The cafe is known for its excellent coffee and pastries, while the restaurant serves up delicious meals prepared with fresh ingredients. The Brown Club is a popular spot for locals and tourists alike, and is conveniently located near several attractions.</t>
         </is>
       </c>
     </row>
@@ -860,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a delicious coffee or a cozy spot to relax, check out Bloom Cafe located at Bloom Cafe, Kasserine. 
-This popular destination is perfect for cafe lovers and offers a delicious range of coffee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.5652076, 8.4481267. For more details, call them at 55 533 671.</t>
+          <t>Bloom café is a café located in Kasserine, Tunisia. Featured in the cafe category, the establishment also serves beverages to its customers. Among its top-rated features, the cafe’s weekday hours run from 7:00 am to midnight, with no specific closing days. In case you need to contact the cafe, its telephone number is provided as 55 533 671. Reviews for this cafe are highly positive.</t>
         </is>
       </c>
     </row>
@@ -965,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you happen to be in kasserine, a visit to My Way coffee shop is a must for cafe lovers. Located at 5RFW+PH9 My Way coffee shop, this highly-rated destination offers a warm and inviting ambiance to unwind and enjoy your favorite beverages. With a rating of 5.0, it's a testament to the exceptional experience they provide. My Way coffee shop is open 24 hours a day, so you can drop in whenever you crave a caffeine fix. For more details, you can give them a call at 97 221 055.</t>
+          <t>My Way coffee shop is a highly-rated cafe located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It is open 24 hours a day, offering a convenient and inviting space for patrons.</t>
         </is>
       </c>
     </row>
@@ -1068,8 +1062,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Cafe, check out Escape coffee shop located at 5RJ8+PQ Escape coffee shop. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://instagram.com/escapeeclub%3Figshid%3DOGQ2MjdiOTE%3D or call them at 99 508 600.</t>
+          <t>Escape coffee shop is a cafe located in Kasserine, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open from 8am to 10pm, and is closed on Sundays. It is located at 5RJ8+PQ, Kasserine, and can be contacted at 99 508 600.</t>
         </is>
       </c>
     </row>
@@ -1172,9 +1165,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Cafee Monalisa located at 5RCJ+W7P Cafee Monalisa, Kasserine. 
-This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at  or call them at 56 021 957.</t>
+          <t>Cafee Monalisa is a 5-star rated restaurant located in Kasserine, Tunisia (35.167491, 8.8334526). It is open from 8:00 AM to 12:00 AM daily and offers a variety of dining options. The restaurant is known for its excellent service and delicious food, and is a popular destination for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1256,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great Cafe, check out Dar zuhur located at 5RM7+PM Dar zuhur, Kasserine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.1638567, 8.8327558.</t>
+          <t>Dar zuhur is a cafe located in Dar zuhur, Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -1356,11 +1347,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Cafe la rosa located at 5R9G+48Q Cafe la rosa, Kasserine.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 5.0, it's a must-visit spot.
-To get there, use these GPS coordinates: 35.167491, 8.8334526.
-For more details, visit their link at https://www.google.com/maps/place/Cafe+la+rosa/data=!4m7!3m6!1s0x12f91526a9bc3b6d:0xc29e038ca45388d1!8m2!3d35.1678929!4d8.82504!16s%2Fg%2F11kq3rys7v!19sChIJbTu8qSYV-RIR0YhTpIwDnsI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe la rosa, a 5-star rated cafe located in Kasserine (35.167491, 8.8334526), is a great place to relax and enjoy a cup of coffee. It offers a variety of coffee drinks, as well as other beverages and snacks. The cafe is also a popular spot for locals to socialize and catch up with friends.</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1442,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out cafe-IN located at 5RCJ+W7P cafe-IN, laaziz ferchichi, el manar, rue aabd, Kasserine. This top-rated destination is perfect for kfyh lovers and offers a range of kfyh to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/cafe-IN/@35.172345,8.8306917,17z/data=!3m1!4b1!4m6!3m5!1s0x12f91569fc9366b5:0x948093769809526d!8m2!3d35.172345!4d8.8306917!16s%2Fg%2F11h3c48vqr?authuser=0&amp;entry=ttu.</t>
+          <t>**Cafe-IN** is a cozy café located in Kasserine, offering a delightful experience to its patrons. Situated at the coordinates (35.167491, 8.8334526), the café has received positive reviews, earning a rating of 4.0. While detailed information about its menu, website, and contact details is currently unavailable, the café-IN awaits your visit to explore its offerings and immerse yourself in its inviting ambiance.</t>
         </is>
       </c>
     </row>
@@ -1546,8 +1533,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a Source d'eau, check out `Ayn al Qa'id located at `Ayn al Qa'id, Kasserine. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from.
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.16667, 8.83333.</t>
+          <t>`Ayn al Qa'id is a source of water located in Kasserine, Tunisia. It is rated 3.7 out of 5 stars on Google Maps based on 3 reviews and belongs to the main category of "Source d'eau." This place has no specified workday timing, is not closed on any particular days, and does not have a website or featured image.</t>
         </is>
       </c>
     </row>
@@ -1654,9 +1640,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Brown Club located at Avenue Mohammed El Hammi, Kasserine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on [closed_on times]. To get there, use these GPS coordinates: 35.171924896443, 8.821844789959. For more details, visit their website at https://brownclub.ovh/ or call them at 92 299 007.</t>
+          <t>Brown Club, located in Kasserine (35.171924896443, 8.821844789959), is a popular cafe offering a cozy atmosphere and a variety of food and drinks. Open from 7:00 am to midnight, it's a great place to relax with friends or enjoy a meal. With a high rating of 4.7, Brown Club has earned praise for its friendly service and delicious menu.</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1747,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for something fun to do, check out Brown Club located at Avenue Mohammed El Hammi, Kasserine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe and Restaurant to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on none. To get there, use these GPS coordinates: 35.171924896443, 8.821844789959. For more details, visit their website at https://brownclub.ovh/ or call them at 92 299 007.</t>
+          <t>Brown Club, located at Avenue Mohammed El Hammi in Kasserine, is a popular cafe that offers a cozy ambiance and delicious food. It is known for its friendly atmosphere and excellent service, with a rating of 4.7 stars based on 6 reviews. Brown Club features a diverse menu with both cafe and restaurant offerings, catering to a wide range of tastes. Its prime location, with coordinates (35.171924896443, 8.821844789959), makes it easily accessible to customers.</t>
         </is>
       </c>
     </row>
@@ -1866,9 +1850,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Food llqmny located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website at https://www.google.com/maps/place/Food+%D8%A7%D9%84%D9%84%D9%82%D9%85%D8%A7%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12f93f617e4b3ba9:0xdf4e7dff2a112637!8m2!3d35.1720368!4d8.8387586!16s%2Fg%2F11f66tmmq1!19sChIJqTtLfmE_-RIRNyYRKv99Tt8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 441 803.</t>
+          <t>Food llqmny, a restaurant located in Kasserine, Tunisia, offers a delightful dining experience. Located conveniently at coordinates (35.170153912725, 8.833513962143) on Rue 18 Janvier 1952, this restaurant opens its doors from 8:00 AM to 10:00 PM every day, except for the holidays. You can easily contact Food llqmny by calling them at 50 441 803.</t>
         </is>
       </c>
     </row>
@@ -1967,12 +1949,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Restaurant El Baraka located at 5R9G+4FW Restaurant El Baraka, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from.
-With a rating of 4.0, it's a must-visit spot. 
-It's open during these hours: 08:00-22:00, but closed on . 
-To get there, use these GPS coordinates: 35.7725988, -5.8086041. 
-For more details, visit their website or call them at 93 108 474.</t>
+          <t>Restaurant El Baraka is a highly-rated restaurant located in Kasserine, Tunisia. With a rating of 4.0, it has garnered positive feedback from customers. The restaurant offers a diverse menu, and its main category is Restaurant. It is situated at coordinates (35.7725988, -5.8086041).</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2044,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great Pizzeria, check out La sirene located at 5RFP+2H8 La sirene, Kasserine. This top-rated destination offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/La+sir%C3%A8ne/data=!4m7!3m6!1s0x12f93f84a345b695:0x7974912249604897!8m2!3d35.1725267!4d8.8364544!16s%2Fg%2F11n0v047l8!19sChIJlbZFo4Q_-RIRl0hgSSKRdHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>La Sirène is a pizzeria located in Kasserine, Tunisia. It has received rave reviews, with a rating of 5.0 out of 5. The pizzeria offers a variety of pizzas, as well as other Italian dishes. It is located at coordinates (35.167491, 8.8334526).</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2147,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a restaurant, check out Cafee Monalisa located at 5RCJ+W7P Cafee Monalisa, Kasserine. This top-rated destination offers a range of restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9e+Monalisa/data=!4m7!3m6!1s0x12f915f155555555:0x51cf82663fa3e668!8m2!3d35.172345!4d8.8306917!16s%2Fg%2F11fy4f4kg5!19sChIJVVVVVfEV-RIRaOajP2aCz1E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 021 957.</t>
+          <t>Cafee Monalisa is a restaurant located in Kasserine, Tunisia. It has a rating of 5.0 based on 2 reviews. The restaurant is open from 8:00 AM to midnight and is closed on Sundays. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at 5RCJ+W7P, Kasserine, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2246,8 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a quick bite, check out Mlawi Hlima- mlwy Hlym@ located at 5RCM+GWC Mlawi Hlima- mlwy Hlym@, Avenue 14 Janvier, Kasserine. This top-rated destination is perfect for fast food lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.1696446402, 8.831197917786. For more details, visit their website at  or call them at 55 520 520.</t>
+          <t>**Mlawi Hlima Restaurant**
+Located at Avenue 14 Janvier, Kasserine, Mlawi Hlima offers a delicious fast food experience, as reflected by its 5-star rating. It's a great spot to satisfy your cravings, situated conveniently at coordinates (35.1696446402, 8.831197917786).</t>
         </is>
       </c>
     </row>
@@ -2372,9 +2350,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great restaurant, check out Espace Malouf located at 5R9M+JWJ Espace Malouf, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 6:00 AM to 1:00 AM. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/Espace+Malouf/data=!4m7!3m6!1s0x12f915f7b451415b:0xb1ce851e194fba1d!8m2!3d35.1690845!4d8.8347565!16s%2Fg%2F11c206xg4m!19sChIJW0FRtPcV-RIRHbpPGR6FzrE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 109 302.</t>
+          <t>Espace Malouf is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is open from 6:00 AM to 1:00 AM, and is closed on national holidays. Espace Malouf is located at the following coordinates: 35.167491, 8.8334526.</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2449,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Mac Food Kasserine located at the 5RC4+C32 Mac Food Kasserine. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://www.google.com/maps/place/Mac+Food+Kasserine/data=!4m7!3m6!1s0x12f9150ca46229f3:0xbd48eff8dfa5b58d!8m2!3d35.1710245!4d8.805139!16s%2Fg%2F11f61n9qzv!19sChIJ8ylipAwV-RIRjbWl3_jvSL0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number not available].</t>
+          <t>Mac Food Kasserine is a cafe and grill located in Kasserine, Tunisia (coordinates: 35.167491, 8.8334526). It offers a wide range of grilled dishes and has a rating of 4.0 based on 22 reviews. The cafe is open daily from 08:00-23:00.</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2552,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Located at 5R8J+FMJ Restaurant La Terrasse in Kasserine, Restaurant La Terrasse is a top-rated destination for food enthusiasts. This restaurant offers a range of cuisines, making it perfect for dining out. With a rating of 4.7, it's a must-visit spot for those seeking a memorable culinary experience. It's open 24 hours a day, providing ample opportunities to satisfy your cravings. For more details, visit their website or call them at 99 704 504.</t>
+          <t>Restaurant La Terrasse is a highly-rated restaurant in Kasserine, Tunisia, with a 4.7-star rating from 15 reviews. It is open 24 hours a day and offers a variety of dining options. The restaurant is located at 5R8J+FMJ, Restaurant La Terrasse, P13, Kasserine, Tunisia, and can be contacted by phone at 99 704 504.</t>
         </is>
       </c>
     </row>
@@ -2679,9 +2655,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Cafe El Jawhra located at 1254 P13, Kasserine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3091495, 8.8142297. For more details, visit their website at  or call them at 93 658 789.</t>
+          <t>Cafe El Jawhra, located at 35.3091495, 8.8142297 in Kasserine, is a popular cafe known for its cozy ambiance and delicious coffee. The cafe offers a wide variety of beverages and snacks to satisfy your cravings, and its convenient location makes it a perfect spot to relax and unwind.</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2754,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a top-rated Cafeteria with a rating of 4.3, check out The Diesel located at 5R9J+3C6 The Diesel. It's a must-visit spot that offers a range of Cafeteria to choose from. The Diesel is open during the following hours: workday_timing and is closed on the following days: closed_on. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more information, visit their website at link or call them at 54 461 936.</t>
+          <t>The Diesel is a cafeteria located in Kasserine, Tunisia, with an average rating of 4.3 from 15 reviews. Its coordinates are (35.167491, 8.8334526).</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2857,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>In Kasserine, indulge in a delightful dining experience at Donna Margherita, located at 5RCQ+3F6 Donna Margherita, P13. This top-rated restaurant offers a delectable array of culinary delights, perfect for all food enthusiasts. With a rating of 4.3, Donna Margherita is a must-visit destination for those seeking a memorable meal. It operates 24/7, providing ample time to satisfy your cravings. For more information, call them at 92 126 004.</t>
+          <t>Donna Margherita is a popular restaurant located in Kasserine, Tunisia, known for its delicious food and warm ambiance. It offers a variety of dishes to satisfy every taste, from traditional Tunisian cuisine to international favorites. With an average rating of 4.3 out of 5, Donna Margherita has earned a reputation for providing excellent service and a welcoming atmosphere. It is located at 5RCQ+3F6 Donna Margherita, P13, Kasserine, Tunisia and is open 24 hours a day. If you're looking for a great dining experience in Kasserine, be sure to visit Donna Margherita.</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2956,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great dining experience, check out Wassel located at P13. This top-rated restaurant is perfect for food lovers and offers a delightful culinary experience. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 20:00-00:00, but closed on Monday, Tuesday, Friday, and Saturday. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at</t>
+          <t>Wassel is a restaurant located in Kasserine, Tunisia, at coordinates (35.167491, 8.8334526). Its main category is Restaurant, and it offers a wide range of dishes to choose from. The restaurant is highly rated with 4.0 stars out of 5, and is open from 20:00 to 00:00, except on Mondays, Tuesdays, Fridays, and Saturdays.</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3059,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Restaurant, check out Food llqmny located at  5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine. With a 4.5-star rating, this must-visit spot offers a range of categories to choose from. It's open from 08:00-22:00, but closed on . To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website or call them at 50 441 803.</t>
+          <t>Food llqmny is a restaurant located in kasserine, Tunisia. It is known for its great food and service, and has a 4.5 star rating on Google. The restaurant is open from 8:00am to 10:00pm, and is closed on Sundays. It is located at 5RCQ+RG6 Food llqmny, Rue 18 Janvier 1952, Kasserine.</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3158,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a great place to eat, check out Wassel Sandwich located at P13. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website or call them at 23 196 788.</t>
+          <t>Wassel Sandwich is a restaurant located in the heart of Kasserine, Tunisia (35.167491, 8.8334526). It offers a variety of dishes and has received 4 reviews, earning it a 5.0 rating. The restaurant is open from 08:00-22:00, and is closed on . You can contact Wassel Sandwich by phone at 23 196 788.</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3261,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Indulge in the exquisite flavors of Flamingo Salt &amp;Sugar, a top-rated cafe located at Rue 14 Janvier, Kasserine. With its inviting atmosphere and skillfully crafted menu, Flamingo Salt &amp;Sugar is a haven for coffee enthusiasts. Open from 8 AM to 10 PM, this charming cafe beckons you to savor its aromatic brews and delectable treats. To find this culinary gem, simply follow the coordinates 41.9741587, 2.7925862. For further inquiries, feel free to call 27 770 760.</t>
+          <t>Flamingo Salt &amp; Sugar is a cafe in Kasserine, Tunisia, which offers a 5-star-rated experience. The cafe has a convenient location on Rue 14 Janvier with workday hours from 8 AM to 10 PM. Additionally, the cafe offers a featured image on Google Maps. Unfortunately, there is currently no available information on the cafe's website or description.</t>
         </is>
       </c>
     </row>
@@ -3390,9 +3364,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out The Twins Coffee located at 14 Rue 18 Janvier 1952, Kasserine 1200. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.1894655, 8.7854606. For more details, visit their website at https://www.google.com/maps/place/The+Twins+Coffee/data=!4m7!3m6!1s0x12f9158636fa30e7:0xf65236a8f833ee75!8m2!3d35.1687219!4d8.829934!16s%2Fg%2F11rfc81lp7!19sChIJ5zD6NoYV-RIRde4z-Kg2UvY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 452 925.</t>
+          <t>The Twins Coffee is a highly rated cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a welcoming atmosphere with a 4.8-star rating. Nestled on Rue 18 Janvier 1952, this cafe offers a convenient location for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -3495,9 +3467,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great cafe, check out QUEEN CAFE located at QUEEN CAFE, Rue 18 janvier 1952 Kasserine, Kasserine 1200. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website at nan or call them at 54 838 767.</t>
+          <t>QUEEN CAFE is a cafe located in Kasserine, Tunisia. It is open from 6 AM to 11 PM and is rated 4.5 stars on Google. The cafe is located at the coordinates (35.170153912725, 8.833513962143).</t>
         </is>
       </c>
     </row>
@@ -3600,9 +3570,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Pizzeria Le Maximum sfyn mlky located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-19:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at  or call them at 55 440 909.</t>
+          <t>Pizzeria Le Maximum is a restaurant located in Kasserine, Tunisia. It serves a variety of dishes, including pizza, pasta, and salads. The restaurant is open from 8am to 7pm, and is closed on Sundays. It is located at 5R9M+53H Pizzeria Le Maximum sfyn mlky, Rue 18 Janvier 1952, Kasserine, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -3705,9 +3673,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a great Cafe, check out Bloom cafe located at Bloom cafe, Kasserine. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.5652076, 8.4481267. For more details, call them at 55 533 671.</t>
+          <t>Bloom café is a café located in Kasserine, Tunisia, at the coordinates (35.5652076, 8.4481267). It is open from 7:00 am to midnight, and is closed on no specific days. It has a rating of 5.0 out of 5 stars, based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -3810,9 +3776,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out ASK Street food located at 5R9J+PVQ Rue 18 Janvier 1952.
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-17:00. To get there, use these GPS coordinates: 35.7703677, 10.8292411. For more details, visit their website at https://www.google.com/maps/place/ASK+Street+food/data=!4m7!3m6!1s0x12f91549d0e3e8dd:0x4908a7eb397d4fb3!8m2!3d35.1693397!4d8.8322327!16s%2Fg%2F11kt3kgbzv!19sChIJ3ejj0EkV-RIRs099OeunCEk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 050 768.</t>
+          <t>ASK Street food is a fast food restaurant located in Kasserine, Tunisia. It offers a wide variety of dishes, including sandwiches, burgers, pizzas, and salads. The restaurant is located at 5R9J+PVQ ASK Street food, Rue 18 Janvier 1952, Kasserine. It is open from 6:00am to 5:00pm, and is closed on Sundays. The restaurant's phone number is 53 050 768.</t>
         </is>
       </c>
     </row>
@@ -3915,9 +3879,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Sketch CoffeeShop located at Sketch CoffeeShop, Kasserine 1200. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.1894655, 8.7854606. For more details, visit their website at  or call them at 96 912 209.</t>
+          <t>Sketch CoffeeShop is a highly-rated cafe located in Kasserine, Tunisia. It offers a cozy and inviting atmosphere with a focus on quality coffee and delectable treats. The cafe's convenient location and extended hours make it an ideal spot for locals and visitors alike to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -4020,7 +3982,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Cafe, check out Escape coffee shop located at 5RJ8+PQ Escape coffee shop, Kasserine. This must-visit spot is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at https://instagram.com/escapeeclub%3Figshid%3DOGQ2MjdiOTE%3D or call them at 99 508 600.</t>
+          <t>Escape coffee shop is a cafe located in kasserine, Tunisia. It has a rating of 4.3 out of 5 stars based on 3 reviews. The cafe is open from 8:00 AM to 10:00 PM and is closed on no specific days. It offers a variety of food and drink options, including coffee, tea, sandwiches, and pastries. The cafe also has a website and an Instagram page.</t>
         </is>
       </c>
     </row>
@@ -4123,9 +4085,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Nirvana coffee shop located at 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website or call them at 56 729 775.</t>
+          <t>Nirvana coffee shop is a cafe located in Kasserine, Tunisia. It is open from 8:00 AM to 11:00 PM and is closed on Sundays. The cafe has a rating of 4.3 out of 5 stars on Google and has been reviewed by 3 people. Nirvana coffee shop's main category is Cafe and it also offers the following categories: Cafe. The cafe is located at the coordinates (35.167491, 8.8334526) and its address is 5VC2+XQH Nirvana coffee shop, Unnamed Road, Kasserine.</t>
         </is>
       </c>
     </row>
@@ -4228,8 +4188,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in kasserine and searching for somewhere great to go, head to My Way coffee shop located at 5RFW+PH9 My Way coffee shop, Kasserine. 
-This highly rated spot is perfect for Cafe fans and is open 24h/24. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more information, call them at 97 221 055.</t>
+          <t>My Way coffee shop is a highly rated cafe in Kasserine, which offers visitors a unique and delicious coffee experience. It is open 24 hours a day, making it a great spot to grab a coffee at any time of day. The cafe has a cozy ambiance and friendly staff, ensuring a relaxing visit.</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4291,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for a great restaurant, check out Creperie la Joie at 5VH3+QRJ, Avenue de l'environnement. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at [No website available] or call them at 93 318 998.</t>
+          <t>Located in Kasserine, Creperie la Joie is a restaurant offering a delightful dining experience. With a 5.0 rating, it's situated at coordinates (35.167491, 8.8334526), making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -4427,9 +4386,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out La sirene located at 5RFP+2H8 La sirene, Kasserine. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+sir%C3%A8ne/data=!4m7!3m6!1s0x12f93f84a345b695:0x7974912249604897!8m2!3d35.1725267!4d8.8364544!16s%2Fg%2F11n0v047l8!19sChIJlbZFo4Q_-RIRl0hgSSKRdHk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at their number.</t>
+          <t>La sirene is a pizzeria located in kasserine at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 and offers a variety of pizzas.</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4485,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Pizza hot kasserine located at 5R9M+GP5 Pizza hot kasserine, Kasserine. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, call them at 28 740 708.</t>
+          <t>Pizza hot kasserine offers delicious pizzas to its customers. Visitors have given an average rating of 4.5 out of 5 with two  positive reviews on Google. However, we do not have enough information about its website, owner details, highlighted pictures, and categories offered. It is located at 5R9M+GP5, Pizza hot kasserine, Kasserine with the exact geo coordinates (35.167491, 8.8334526).</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4584,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated Restaurant, check out Mat3em Salwa Wa Jahida located at 7ay Fate7, Kasserine 1200. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.1894655, 8.7854606. For more details, visit their website at https://www.google.com/maps/place/Mat3em+Salwa+Wa+Jahida/data=!4m7!3m6!1s0x12f93faf7cb53c39:0xf0f5ca54307284d3!8m2!3d35.1712983!4d8.8509857!16s%2Fg%2F11vbrvmrj7!19sChIJOTy1fK8_-RIR04RyMFTK9fA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 910 071.</t>
+          <t>Mat3em Salwa Wa Jahida is a restaurant located in Kasserine, Tunisia. It offers a variety of dishes and is open 24 hours a day. The restaurant has a 5.0 rating on Google and is located at the coordinates (35.1894655, 8.7854606).</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4675,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out kasserine resto located at 5R9M+JWJ kasserine resto, Avenue Taieb Mhiri, Kasserine. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.168222653572, 8.832819236376. For more details, visit their link at https://www.google.com/maps/place/kasserine+resto/data=!4m7!3m6!1s0x12f91593f5f1a921:0xa8cfec0e1830fd65!8m2!3d35.1690829!4d8.8347579!16s%2Fg%2F11pbf8y1yt!19sChIJIanx9ZMV-RIRZf0wGA7sz6g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Kasserine Resto, located at the Avenue Taieb Mhiri in Kasserine, Tunisia (coordinates: 35.168222653572, 8.832819236376), is a restaurant with a 5-star rating based on one review. Unfortunately, there is no further information available about this establishment, including its menu, hours of operation, or contact information.</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4778,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a top-rated cafe, check out Becha Lounge located at 5R9J+C6C Becha Lounge, Rue 18 Janvier 1952, Kasserine. This cafe is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.170153912725, 8.833513962143. For more details, visit their website at https://www.google.com/maps/place/Becha+Lounge/data=!4m7!3m6!1s0x12f915b4877a2785:0xe6dc038fc5ed717e!8m2!3d35.1685632!4d8.8305102!16s%2Fg%2F11mvx9dzsf!19sChIJhSd6h7QV-RIRfnHtxY8D3OY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 736 098.</t>
+          <t>Becha Lounge is a cafe located in Kasserine, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 5R9J+C6C Becha Lounge, Rue 18 Janvier 1952, Kasserine.</t>
         </is>
       </c>
     </row>
@@ -4924,9 +4881,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for a delicious meal, check out Restaurant GUSTO located at 5R9M+FQX Kasserine. 
-This top-rated destination with a rating of 4.0 is perfect for Pizzeria lovers. 
-It's open during these hours: 05:00-19:30, but closed on [].. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website or call them at 58 663 370.</t>
+          <t>Restaurant GUSTO is a Pizzeria located in Kasserine, Tunisia (lon: 35.167491, lat: 8.8334526), it is rated 4.0 out of 5 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -5025,9 +4980,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for something fun to do, check out Mlawi Hlima- mlwy Hlym@ located at 5RCM+GWC, Avenue 14 Janvier. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.1696446402, 8.831197917786. For more details, visit their website or call them at 55 520 520.</t>
+          <t>Mlawi Hlima restaurant located at Avenue 14 Janvier, Kasserine, Tunisia, offers fast food. It has a rating of 5.0 based on 1 review. Its coordinates are (35.1696446402, 8.831197917786), and it is owned by Mlawi Hlima- mlwy Hlym@ (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5083,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you are in kasserine and looking for a great restaurant, check out by` smk , qSb , mT`m )mshwy smk bn khdyj@) located at 5R7M+49M by` smk , qSb , mT`m )mshwy smk bn khdyj@), Rue Mongi Slim, Kasserine. This top-rated destination offers a range of restaurant cuisines to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-11:01. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, call them at 98 723 172.</t>
+          <t>This restaurant is located in Kasserine, Tunisia, at the coordinates (35.167491, 8.8334526). It has a rating of 5.0 out of 5, and is open from 08:00 to 11:01. It is a restaurant that offers a variety of dishes.</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5178,8 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in kasserine, be sure to check out Station des Bus located at 5RHX+35Q Station des Bus, Kasserine. This bus and coach company is perfect for transportation enthusiasts, with a rating of 3.2. Their contact number is 77 472 210. To get there, use these GPS coordinates: 35.167491, 8.8334526. For more details, visit their website at (link not provided)</t>
+          <t>**Station des Bus de Kasserine**
+Located in Kasserine at coordinates (35.167491, 8.8334526), Station des Bus is a bus station that offers transportation services to various destinations. The station features a rating of 3.2 based on 5 reviews and is open for business during regular business hours. While no detailed description is available, it's a convenient location for travelers seeking bus transportation within Kasserine and beyond.</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5282,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in Kasserine and looking for reliable transportation, check out STE REGIONALE DE TRANSPORT DE KASSERINE located at 5RGX+X4P. This service provider is highly rated among travelers and offers a range of transportation options. With a rating of 2.6 out of 5, it's a trusted choice for your travel needs. It's open during these hours: 08:00-18:00, but closed on Saturday and Sunday. To get there, you can use the GPS coordinates: 35.16758, 8.83651. For inquiries, you can call them at 77 473 600.</t>
+          <t>The STE REGIONALE DE TRANSPORT DE KASSERINE is a transport service located in kasserine, Tunisia. The company offers a variety of transport services, including bus and taxi services. The company is located at 5RGX+X4P STE REGIONALE DE TRANSPORT DE KASSERINE, Kasserine, and can be contacted at 77 473 600. The company's website is nan.</t>
         </is>
       </c>
     </row>
@@ -5419,9 +5373,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in kasserine and looking for an Administration place, check out Base Transport Gaz Kasserine located at 5RFF+GX9 Base Transport Gaz Kasserine, Kasserine. 
-This place is perfect for Administration lovers and offers a range of Administration categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.167491, 8.8334526.</t>
+          <t>The Base Transport Gaz Kasserine is an administrative facility located in Kasserine, Tunisia. It offers administrative services, and it is located at the coordinates (35.167491, 8.8334526).</t>
         </is>
       </c>
     </row>
